--- a/biology/Médecine/Pio_Héliodore_Laporte/Pio_Héliodore_Laporte.xlsx
+++ b/biology/Médecine/Pio_Héliodore_Laporte/Pio_Héliodore_Laporte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pio_H%C3%A9liodore_Laporte</t>
+          <t>Pio_Héliodore_Laporte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pio Héliodore Laporte (né le 1er septembre 1878 à Verchères et mort le 29 juillet 1939 à
 Saint-Basile) est un médecin et un homme politique canadien.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pio_H%C3%A9liodore_Laporte</t>
+          <t>Pio_Héliodore_Laporte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +526,128 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-Pio Héliodore Laporte naît le 1ier septembre 1877(selon l'acte de décès) à Verchères, au Québec. Ses parents son Jean-Baptiste Laporte et Arthémise Lenoblet, mariés à Contrecœur[1].
-Son père, le médecin[2] Jean-Baptiste Laporte, naît le 10 février 1840 à Lanoraie et meurt le 6 mai 1928 à Verchères. Ses parents son Charles Laporte (5 décembre 1793, Lanoraie - 12 juin 1880, Lanoraie) et Marguerite Lacombe (14 juillet 1794, Lanoraie - morte en date inconnue), mariés le 30 janvier 1815 à Lanoraie[1].
-Sa mère est Arthémise Lenoblet. Elle est née de parents inconnus le 17 juin 1850 à Lanoraie et meurt le 27 novembre 1934 à Maisonneuve, maintenant un quartier de Montréal[1].
-Pio Héliodore Laporte a 6 frères et 6 sœurs: Anna Maria (1879-1968), Blanche (1876-1965), Blandine (1887-1919), Démétrie (1884-?), Fernando (1896-?), Gabrielle (1889-1899), Henri (1888-1905), Marius (1886-?), Paul Carmel (1885-1973), Roméo (1883-?), Sidney (1881-1966) et Yvonne Bernadette (1877-?)[1].
-Il épouse Émilienne Hervieux le 7 juin 1901 et le couple a trois enfants[3]..
-Éducation
-Il étudie au Collège l'Assomption, à l'Université Laval et à l'École des Médecins de Paris.
-Carrière médicale
-Carrière politique
-Il est maire d'Edmundston et président de la commission scolaire. Membre du Parti libéral, Pio Héliodore Laporte est élu député de Madawaska à l'Assemblée législative du Nouveau-Brunswick en 1935 et reste à ce poste jusqu'en 1939. Il est ministre de la Santé et du Travail de 1938 à son décès en 1939.
-Engagement communautaire
-Il est membre des Chevaliers de Colomb.
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pio Héliodore Laporte naît le 1ier septembre 1877(selon l'acte de décès) à Verchères, au Québec. Ses parents son Jean-Baptiste Laporte et Arthémise Lenoblet, mariés à Contrecœur.
+Son père, le médecin Jean-Baptiste Laporte, naît le 10 février 1840 à Lanoraie et meurt le 6 mai 1928 à Verchères. Ses parents son Charles Laporte (5 décembre 1793, Lanoraie - 12 juin 1880, Lanoraie) et Marguerite Lacombe (14 juillet 1794, Lanoraie - morte en date inconnue), mariés le 30 janvier 1815 à Lanoraie.
+Sa mère est Arthémise Lenoblet. Elle est née de parents inconnus le 17 juin 1850 à Lanoraie et meurt le 27 novembre 1934 à Maisonneuve, maintenant un quartier de Montréal.
+Pio Héliodore Laporte a 6 frères et 6 sœurs: Anna Maria (1879-1968), Blanche (1876-1965), Blandine (1887-1919), Démétrie (1884-?), Fernando (1896-?), Gabrielle (1889-1899), Henri (1888-1905), Marius (1886-?), Paul Carmel (1885-1973), Roméo (1883-?), Sidney (1881-1966) et Yvonne Bernadette (1877-?).
+Il épouse Émilienne Hervieux le 7 juin 1901 et le couple a trois enfants..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pio_Héliodore_Laporte</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pio_H%C3%A9liodore_Laporte</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Éducation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie au Collège l'Assomption, à l'Université Laval et à l'École des Médecins de Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pio_Héliodore_Laporte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pio_H%C3%A9liodore_Laporte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est maire d'Edmundston et président de la commission scolaire. Membre du Parti libéral, Pio Héliodore Laporte est élu député de Madawaska à l'Assemblée législative du Nouveau-Brunswick en 1935 et reste à ce poste jusqu'en 1939. Il est ministre de la Santé et du Travail de 1938 à son décès en 1939.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pio_Héliodore_Laporte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pio_H%C3%A9liodore_Laporte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Engagement communautaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est membre des Chevaliers de Colomb.
 </t>
         </is>
       </c>
